--- a/1  临时/color.xlsx
+++ b/1  临时/color.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RGB16" sheetId="9" r:id="rId1"/>
     <sheet name="RGB24" sheetId="10" r:id="rId2"/>
+    <sheet name="gray" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>color-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +150,10 @@
   </si>
   <si>
     <t>DF7F</t>
+  </si>
+  <si>
+    <t>ffffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -562,20 +567,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="5" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="5" width="12.75" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.875" style="1"/>
+    <col min="13" max="13" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
@@ -595,7 +600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -636,7 +641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>8410</v>
       </c>
@@ -704,7 +709,7 @@
         <v>1F3F1F</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D13" si="11">INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
+        <f t="shared" ref="D4:D12" si="11">INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
         <v>0</v>
       </c>
       <c r="E4" s="1">
@@ -771,7 +776,7 @@
         <v>1D3B1D</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -839,7 +844,7 @@
         <v>FFFFFF</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>700</v>
       </c>
@@ -906,7 +911,7 @@
         <v>A61E9</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -973,7 +978,7 @@
         <v>1B3A1F</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>40</v>
       </c>
@@ -1040,7 +1045,7 @@
         <v>1D3B1D</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1107,7 +1112,7 @@
         <v>D8E8F8</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1162,7 +1167,7 @@
         <v>D8E8F8</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>32893</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1258,7 +1263,7 @@
         <v>57183</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1278,7 +1283,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" ref="F13" si="24">DEC2HEX(C13*2^3)&amp;DEC2HEX(D13*2^2)&amp;DEC2HEX(E13*2^3)</f>
+        <f>DEC2HEX(C13*2^3)&amp;DEC2HEX(D13*2^2)&amp;DEC2HEX(E13*2^3)</f>
         <v>D8ECF8</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1305,7 +1310,7 @@
         <v>57183</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="H14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1330,63 +1335,69 @@
         <v>57215</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>8</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="17" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:21" x14ac:dyDescent="0.15">
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1405,19 +1416,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="5" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="5" width="12.75" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1455,7 +1466,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>8410</v>
       </c>
@@ -1518,7 +1529,7 @@
         <v>33808</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1581,7 +1592,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1644,7 +1655,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>700</v>
       </c>
@@ -1707,7 +1718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1770,7 +1781,7 @@
         <v>61213</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>40</v>
       </c>
@@ -1820,7 +1831,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1870,7 +1881,7 @@
         <v>23243</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +1941,7 @@
         <v>19641</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1991,7 +2002,7 @@
         <v>34240</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H11" s="2">
         <v>29</v>
       </c>
@@ -2029,7 +2040,7 @@
         <v>51342</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H12" s="2">
         <v>255</v>
       </c>
@@ -2067,7 +2078,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H13" s="2">
         <v>10</v>
       </c>
@@ -2082,7 +2093,7 @@
         <v>A61E9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H14" s="1">
         <v>27</v>
       </c>
@@ -2098,7 +2109,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H15" s="1">
         <v>29</v>
       </c>
@@ -2114,29 +2125,528 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.15">
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.15">
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.15">
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:12" x14ac:dyDescent="0.15">
       <c r="I20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>808080</v>
+      </c>
+      <c r="B2" s="1">
+        <f>INT(HEX2DEC(LEFT(RIGHT("000000"&amp;$A2,6),2))/2^3)</f>
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <f>INT(HEX2DEC(MID(RIGHT("000000"&amp;$A2,6),3,2))/2^2)</f>
+        <v>32</v>
+      </c>
+      <c r="D2" s="1">
+        <f>INT(HEX2DEC(RIGHT($A2,2))/2^3)</f>
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>DEC2HEX(B2*2^11+C2*2^5+D2)</f>
+        <v>8410</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1">
+        <f>INT(HEX2DEC(LEFT(RIGHT("000000"&amp;$A3,6),2))/2^3)</f>
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
+        <f>INT(HEX2DEC(MID(RIGHT("000000"&amp;$A3,6),3,2))/2^2)</f>
+        <v>63</v>
+      </c>
+      <c r="D3" s="1">
+        <f>INT(HEX2DEC(RIGHT($A3,2))/2^3)</f>
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>DEC2HEX(B3*2^11+C3*2^5+D3)</f>
+        <v>FFFF</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C13" si="0">INT(HEX2DEC(MID(RIGHT("000000"&amp;$M3,6),3,2))/2^2)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D13" si="1">INT(HEX2DEC(RIGHT($M3,2))/2^3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" ref="E4:E20" si="2">DEC2HEX(B4*2^11+C4*2^5+D4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>"0x"&amp;RIGHT("0000"&amp;E4,4)</f>
+        <v>0x0000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <f>(ROW()-4)*2-1</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>(ROW()-4)*4-1</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <f>(ROW()-4)*2-1</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>861</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" ref="F5:F20" si="3">"0x"&amp;RIGHT("0000"&amp;E5,4)</f>
+        <v>0x0861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B20" si="4">(ROW()-4)*2-1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:C20" si="5">(ROW()-4)*4-1</f>
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D20" si="6">(ROW()-4)*2-1</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>18E3</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0x18E3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2965</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0x2965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>39E7</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0x39E7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4A69</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0x4A69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>5AEB</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0x5AEB</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>6B6D</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0x6B6D</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>7BEF</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0x7BEF</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>8C71</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0x8C71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>9CF3</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0x9CF3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AD75</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0xAD75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>BDF7</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0xBDF7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>CE79</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0xCE79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEFB</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0xDEFB</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>EF7D</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0xEF7D</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFF</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFF</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/1  临时/color.xlsx
+++ b/1  临时/color.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="RGB16" sheetId="9" r:id="rId1"/>
     <sheet name="RGB24" sheetId="10" r:id="rId2"/>
     <sheet name="gray" sheetId="11" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>color-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,66 +101,79 @@
     <t>d8eaf9</t>
   </si>
   <si>
-    <t>RGB16-&gt;RGB24</t>
+    <t>RGB24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补齐6位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>585858</t>
-  </si>
-  <si>
-    <t>860E8</t>
-  </si>
-  <si>
-    <t>RGB24-&gt;RGB16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10进制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10进制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DF5F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D8E8F8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X808080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xf8fcf8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X0001c0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-&gt;24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-&gt;16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1F3F1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1D3B1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A61E9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1B3A1F</t>
-  </si>
-  <si>
-    <t>D8EcF8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DF7F</t>
-  </si>
-  <si>
-    <t>ffffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#004193</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +238,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -238,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,8 +296,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -321,7 +369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,10 +401,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,7 +435,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,43 +610,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="1"/>
-    <col min="3" max="5" width="12.75" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.875" style="1"/>
-    <col min="13" max="13" width="4.875" customWidth="1"/>
+    <col min="3" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1"/>
+    <col min="7" max="7" width="4.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="1"/>
+    <col min="9" max="11" width="8.625" customWidth="1"/>
+    <col min="12" max="12" width="7.75" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="16" max="18" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B1" s="7" t="s">
-        <v>26</v>
+    <row r="1" spans="1:19">
+      <c r="A1" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="O1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -616,6 +668,9 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
@@ -625,27 +680,33 @@
       <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="P2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="9">
         <v>8410</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="11">
         <f>HEX2DEC(A3)</f>
         <v>33808</v>
       </c>
@@ -661,328 +722,326 @@
         <f>(HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="12" t="str">
         <f>DEC2HEX(C3*2^3)&amp;DEC2HEX(D3*2^2)&amp;DEC2HEX(E3*2^3)</f>
         <v>808080</v>
       </c>
-      <c r="H3" s="2">
-        <v>808080</v>
+      <c r="H3" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I7" si="0">INT(HEX2DEC(LEFT($H3,2))/2^3)</f>
+        <f>INT(HEX2DEC(LEFT(RIGHT($H3,6),2))/2^3)</f>
         <v>16</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J7" si="1">INT(HEX2DEC(MID($H3,3,2))/2^2)</f>
+        <f>INT(HEX2DEC(MID(RIGHT($H3,6),3,2))/2^2)</f>
         <v>32</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K7" si="2">INT(HEX2DEC(RIGHT($H3,2))/2^3)</f>
+        <f>INT(HEX2DEC(RIGHT(RIGHT($H3,6),2))/2^3)</f>
         <v>16</v>
       </c>
-      <c r="L3" s="1" t="str">
-        <f t="shared" ref="L3:L11" si="3">DEC2HEX(I3*2^11+J3*2^5+K3)</f>
+      <c r="L3" s="12" t="str">
+        <f t="shared" ref="L3:L11" si="0">DEC2HEX(I3*2^11+J3*2^5+K3)</f>
         <v>8410</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N4" si="4">+I3*2^11+J3*2^5+K3</f>
+      <c r="M3" s="11">
+        <f t="shared" ref="M3:M4" si="1">+I3*2^11+J3*2^5+K3</f>
         <v>33808</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P9" si="2">HEX2DEC(LEFT(RIGHT("000000"&amp;$O3,6),2))</f>
         <v>31</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q9" si="5">HEX2DEC(LEFT(RIGHT("000000"&amp;$P3,6),2))</f>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q9" si="3">HEX2DEC(MID(RIGHT("000000"&amp;$O3,6),3,2))</f>
+        <v>63</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R9" si="4">HEX2DEC(RIGHT(RIGHT("000000"&amp;$O3,6),2))</f>
         <v>31</v>
       </c>
-      <c r="R3" s="9">
-        <f t="shared" ref="R3:R9" si="6">HEX2DEC(MID(RIGHT("000000"&amp;$P3,6),3,2))</f>
+      <c r="S3" s="11" t="str">
+        <f t="shared" ref="S3:S9" si="5">DEC2HEX(P3)&amp;DEC2HEX(Q3)&amp;DEC2HEX(R3)</f>
+        <v>1F3F1F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <f t="shared" ref="B4:B10" si="6">HEX2DEC(A4)</f>
+        <v>61440</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C10" si="7">INT(HEX2DEC($A4)/HEX2DEC(800))</f>
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D10" si="8">INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E10" si="9">(HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="12" t="str">
+        <f t="shared" ref="F4:F9" si="10">DEC2HEX(C4*2^3)&amp;DEC2HEX(D4*2^2)&amp;DEC2HEX(E4*2^3)</f>
+        <v>F000</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I11" si="11">INT(HEX2DEC(LEFT(RIGHT($H4,6),2))/2^3)</f>
+        <v>31</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J11" si="12">INT(HEX2DEC(MID(RIGHT($H4,6),3,2))/2^2)</f>
         <v>63</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S9" si="7">HEX2DEC(RIGHT(RIGHT("000000"&amp;$P3,6),2))</f>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K11" si="13">INT(HEX2DEC(RIGHT(RIGHT($H4,6),2))/2^3)</f>
         <v>31</v>
       </c>
-      <c r="T3" t="str">
-        <f t="shared" ref="T3:T9" si="8">DEC2HEX(Q3)&amp;DEC2HEX(R3)&amp;DEC2HEX(S3)</f>
-        <v>1F3F1F</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B10" si="9">HEX2DEC(A4)</f>
-        <v>61440</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C13" si="10">INT(HEX2DEC($A4)/HEX2DEC(800))</f>
-        <v>30</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D12" si="11">INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E13" si="12">(HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F9" si="13">DEC2HEX(C4*2^3)&amp;DEC2HEX(D4*2^2)&amp;DEC2HEX(E4*2^3)</f>
-        <v>F000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="L4" s="12" t="str">
         <f t="shared" si="0"/>
+        <v>FFFF</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" si="1"/>
+        <v>65535</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="S4" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>1D3B1D</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="6"/>
+        <v>65535</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="J4" s="1">
-        <f t="shared" si="1"/>
+      <c r="D5" s="1">
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="K4" s="1">
-        <f t="shared" si="2"/>
+      <c r="E5" s="1">
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="L4" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>FFFF</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="4"/>
-        <v>65535</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="R4" s="9">
-        <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="7"/>
-        <v>29</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" si="8"/>
-        <v>1D3B1D</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="9"/>
-        <v>65535</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="F5" s="12" t="str">
         <f t="shared" si="10"/>
-        <v>31</v>
-      </c>
-      <c r="D5" s="1">
+        <v>F8FCF8</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="11"/>
-        <v>63</v>
-      </c>
-      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="13"/>
-        <v>F8FCF8</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1">
+      <c r="M5" s="11">
         <f>+I5*2^11+J5*2^5+K5</f>
         <v>128</v>
       </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5">
+      <c r="O5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="S5" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="R5" s="9">
+        <v>FFFFFF</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="9">
+        <v>700</v>
+      </c>
+      <c r="B6" s="11">
         <f t="shared" si="6"/>
-        <v>255</v>
-      </c>
-      <c r="S5">
+        <v>1792</v>
+      </c>
+      <c r="C6" s="1">
         <f t="shared" si="7"/>
-        <v>255</v>
-      </c>
-      <c r="T5" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="8"/>
-        <v>FFFFFF</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>700</v>
-      </c>
-      <c r="B6" s="1">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="9"/>
-        <v>1792</v>
-      </c>
-      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+        <v>0E00</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" ref="M6:M11" si="14">+I6*2^11+J6*2^5+K6</f>
+        <v>24</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>233</v>
+      </c>
+      <c r="S6" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>A61E9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>01C0</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="str">
+      <c r="K7" s="1">
         <f t="shared" si="13"/>
-        <v>0E00</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1">
+        <v>29</v>
+      </c>
+      <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>618</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" ref="N6:N11" si="14">+I6*2^11+J6*2^5+K6</f>
-        <v>1560</v>
-      </c>
-      <c r="P6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="R6" s="9">
-        <f t="shared" si="6"/>
-        <v>97</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="7"/>
-        <v>233</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="8"/>
-        <v>A61E9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="9"/>
-        <v>224</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>01C0</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="L7" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>EF1D</v>
       </c>
-      <c r="N7" s="1">
+      <c r="M7" s="11">
         <f t="shared" si="14"/>
         <v>61213</v>
       </c>
-      <c r="P7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7">
+      <c r="O7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="S7" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="R7" s="9">
-        <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="7"/>
-        <v>31</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="8"/>
         <v>1B3A1F</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+    <row r="8" spans="1:19">
+      <c r="A8" s="9">
         <v>40</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="11">
         <f>HEX2DEC(A8)</f>
         <v>64</v>
       </c>
@@ -998,406 +1057,276 @@
         <f>(HEX2DEC($A8)-INT(HEX2DEC($A8)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A8)-INT(HEX2DEC($A8)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>080</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="13"/>
-        <v>080</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" ref="I8:I11" si="15">INT(HEX2DEC(LEFT($H8,2))/2^3)</f>
         <v>31</v>
       </c>
-      <c r="J8" s="1">
-        <f t="shared" ref="J8:J11" si="16">INT(HEX2DEC(MID($H8,3,2))/2^2)</f>
-        <v>63</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" ref="K8:K11" si="17">INT(HEX2DEC(RIGHT($H8,2))/2^3)</f>
-        <v>31</v>
-      </c>
-      <c r="L8" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>FFFF</v>
       </c>
-      <c r="N8" s="1">
+      <c r="M8" s="11">
         <f t="shared" si="14"/>
         <v>65535</v>
       </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8">
+      <c r="O8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="S8" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="R8" s="9">
+        <v>1D3B1D</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11">
         <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-      <c r="S8">
+        <v>61213</v>
+      </c>
+      <c r="C9" s="1">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="T8" t="str">
+      <c r="D9" s="1">
         <f t="shared" si="8"/>
-        <v>1D3B1D</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="9"/>
-        <v>61213</v>
-      </c>
-      <c r="C9" s="1">
+        <v>29</v>
+      </c>
+      <c r="F9" s="12" t="str">
         <f t="shared" si="10"/>
-        <v>29</v>
-      </c>
-      <c r="D9" s="1">
+        <v>E8E0E8</v>
+      </c>
+      <c r="H9" s="9">
+        <v>585858</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="11"/>
-        <v>56</v>
-      </c>
-      <c r="E9" s="1">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="12"/>
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="str">
+        <v>22</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="13"/>
-        <v>E8E0E8</v>
-      </c>
-      <c r="H9" s="5">
-        <v>585858</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="15"/>
         <v>11</v>
       </c>
-      <c r="J9" s="1">
-        <f t="shared" si="16"/>
-        <v>22</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="17"/>
-        <v>11</v>
-      </c>
-      <c r="L9" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>5ACB</v>
       </c>
-      <c r="N9" s="1">
+      <c r="M9" s="11">
         <f t="shared" si="14"/>
         <v>23243</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="9">
+      <c r="O9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="S9" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>216</v>
-      </c>
-      <c r="R9" s="9">
+        <v>D8E8F8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="9">
+        <v>40</v>
+      </c>
+      <c r="B10" s="11">
         <f t="shared" si="6"/>
-        <v>232</v>
-      </c>
-      <c r="S9" s="9">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1">
         <f t="shared" si="7"/>
-        <v>248</v>
-      </c>
-      <c r="T9" t="str">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="8"/>
-        <v>D8E8F8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="9"/>
-        <v>23243</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="str">
+        <f t="shared" ref="F10" si="15">DEC2HEX(C10*2^3)&amp;DEC2HEX(D10*2^2)&amp;DEC2HEX(E10*2^3)</f>
+        <v>080</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="11"/>
+      <c r="J10" s="1">
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="12"/>
+      <c r="K10" s="1">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" ref="F10" si="18">DEC2HEX(C10*2^3)&amp;DEC2HEX(D10*2^2)&amp;DEC2HEX(E10*2^3)</f>
-        <v>585858</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="15"/>
-        <v>11</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="16"/>
-        <v>22</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="17"/>
-        <v>11</v>
-      </c>
-      <c r="L10" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="L10" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>5ACB</v>
       </c>
-      <c r="N10" s="1">
+      <c r="M10" s="11">
         <f t="shared" si="14"/>
         <v>23243</v>
       </c>
-      <c r="P10">
-        <v>123456</v>
-      </c>
-      <c r="R10" t="str">
-        <f>RIGHT("000000"&amp;$P9,6)</f>
-        <v>D8E8F8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" ref="B11" si="19">HEX2DEC(A11)</f>
-        <v>2845</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="H11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="12"/>
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" ref="F11" si="20">DEC2HEX(C11*2^3)&amp;DEC2HEX(D11*2^2)&amp;DEC2HEX(E11*2^3)</f>
-        <v>860E8</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="J11" s="1">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
       <c r="K11" s="1">
-        <f t="shared" si="17"/>
-        <v>29</v>
-      </c>
-      <c r="L11" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>807D</v>
-      </c>
-      <c r="N11" s="1">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="M11" s="11">
         <f t="shared" si="14"/>
-        <v>32893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" ref="B12" si="21">HEX2DEC(A12)</f>
-        <v>57183</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="11"/>
-        <v>58</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" ref="F12" si="22">DEC2HEX(C12*2^3)&amp;DEC2HEX(D12*2^2)&amp;DEC2HEX(E12*2^3)</f>
-        <v>D8E8F8</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="1">
-        <f>INT(HEX2DEC(LEFT($H12,2))/2^3)</f>
-        <v>27</v>
-      </c>
-      <c r="J12" s="1">
-        <f>INT(HEX2DEC(MID($H12,3,2))/2^2)</f>
-        <v>58</v>
-      </c>
-      <c r="K12" s="1">
-        <f>INT(HEX2DEC(RIGHT($H12,2))/2^3)</f>
-        <v>31</v>
-      </c>
-      <c r="L12" s="1" t="str">
-        <f>DEC2HEX(I12*2^11+J12*2^5+K12)</f>
-        <v>DF5F</v>
-      </c>
-      <c r="N12" s="1">
-        <f>+I12*2^11+J12*2^5+K12</f>
-        <v>57183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" ref="B13" si="23">HEX2DEC(A13)</f>
-        <v>57215</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="D13" s="1">
-        <v>59</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f>DEC2HEX(C13*2^3)&amp;DEC2HEX(D13*2^2)&amp;DEC2HEX(E13*2^3)</f>
-        <v>D8ECF8</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="1">
-        <f>INT(HEX2DEC(LEFT($H13,2))/2^3)</f>
-        <v>27</v>
-      </c>
-      <c r="J13" s="1">
-        <f>INT(HEX2DEC(MID($H13,3,2))/2^2)</f>
-        <v>58</v>
-      </c>
-      <c r="K13" s="1">
-        <f>INT(HEX2DEC(RIGHT($H13,2))/2^3)</f>
-        <v>31</v>
-      </c>
-      <c r="L13" s="1" t="str">
-        <f>DEC2HEX(I13*2^11+J13*2^5+K13)</f>
-        <v>DF5F</v>
-      </c>
-      <c r="N13" s="1">
-        <f>+I13*2^11+J13*2^5+K13</f>
-        <v>57183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="H14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="1">
-        <f>INT(HEX2DEC(LEFT($H14,2))/2^3)</f>
-        <v>27</v>
-      </c>
-      <c r="J14" s="1">
-        <f>INT(HEX2DEC(MID($H14,3,2))/2^2)</f>
-        <v>59</v>
-      </c>
-      <c r="K14" s="1">
-        <f>INT(HEX2DEC(RIGHT($H14,2))/2^3)</f>
-        <v>31</v>
-      </c>
-      <c r="L14" s="1" t="str">
-        <f>DEC2HEX(I14*2^11+J14*2^5+K14)</f>
-        <v>DF7F</v>
-      </c>
-      <c r="N14" s="1">
-        <f>+I14*2^11+J14*2^5+K14</f>
-        <v>57215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="I15" s="1">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1">
-        <v>4</v>
-      </c>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="17" spans="9:21" x14ac:dyDescent="0.15">
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="9:21" x14ac:dyDescent="0.15">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="18" spans="9:20">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="9:21" x14ac:dyDescent="0.15">
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="9:20">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:20">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:20">
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="9:20">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="9:20">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="9:20">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="9:20">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="9:20">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:20">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1413,14 +1342,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="1"/>
@@ -1428,7 +1357,7 @@
     <col min="6" max="8" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1395,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>8410</v>
       </c>
@@ -1529,7 +1458,7 @@
         <v>33808</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1521,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1655,7 +1584,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>700</v>
       </c>
@@ -1718,7 +1647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1710,7 @@
         <v>61213</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>40</v>
       </c>
@@ -1831,7 +1760,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1881,7 +1810,7 @@
         <v>23243</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1941,7 +1870,7 @@
         <v>19641</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2002,7 +1931,7 @@
         <v>34240</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="H11" s="2">
         <v>29</v>
       </c>
@@ -2040,7 +1969,7 @@
         <v>51342</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="H12" s="2">
         <v>255</v>
       </c>
@@ -2078,7 +2007,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="H13" s="2">
         <v>10</v>
       </c>
@@ -2092,8 +2021,14 @@
         <f t="shared" si="11"/>
         <v>A61E9</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="M13" s="2"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="H14" s="1">
         <v>27</v>
       </c>
@@ -2109,7 +2044,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="H15" s="1">
         <v>29</v>
       </c>
@@ -2125,25 +2060,25 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="9:12">
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="9:12">
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="9:12">
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:12">
       <c r="I20" s="1"/>
     </row>
   </sheetData>
@@ -2153,16 +2088,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2176,7 +2111,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>808080</v>
       </c>
@@ -2198,9 +2133,9 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <f>INT(HEX2DEC(LEFT(RIGHT("000000"&amp;$A3,6),2))/2^3)</f>
@@ -2220,7 +2155,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2228,15 +2163,15 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C13" si="0">INT(HEX2DEC(MID(RIGHT("000000"&amp;$M3,6),3,2))/2^2)</f>
+        <f t="shared" ref="C4" si="0">INT(HEX2DEC(MID(RIGHT("000000"&amp;$M3,6),3,2))/2^2)</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D13" si="1">INT(HEX2DEC(RIGHT($M3,2))/2^3)</f>
+        <f t="shared" ref="D4" si="1">INT(HEX2DEC(RIGHT($M3,2))/2^3)</f>
         <v>0</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E20" si="2">DEC2HEX(B4*2^11+C4*2^5+D4)</f>
+        <f t="shared" ref="E4:E23" si="2">DEC2HEX(B4*2^11+C4*2^5+D4)</f>
         <v>0</v>
       </c>
       <c r="F4" s="1" t="str">
@@ -2244,7 +2179,7 @@
         <v>0x0000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2269,7 +2204,7 @@
         <v>0x0861</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2294,7 +2229,7 @@
         <v>0x18E3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2319,7 +2254,7 @@
         <v>0x2965</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2344,7 +2279,7 @@
         <v>0x39E7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2369,7 +2304,7 @@
         <v>0x4A69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2394,7 +2329,7 @@
         <v>0x5AEB</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2419,7 +2354,7 @@
         <v>0x6B6D</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2444,7 +2379,7 @@
         <v>0x7BEF</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2469,7 +2404,7 @@
         <v>0x8C71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2494,7 +2429,7 @@
         <v>0x9CF3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2519,7 +2454,7 @@
         <v>0xAD75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2544,7 +2479,7 @@
         <v>0xBDF7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2569,7 +2504,7 @@
         <v>0xCE79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2594,7 +2529,7 @@
         <v>0xDEFB</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2619,7 +2554,7 @@
         <v>0xEF7D</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2642,6 +2577,51 @@
       <c r="F20" s="1" t="str">
         <f t="shared" si="3"/>
         <v>0xFFFF</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>

--- a/1  临时/color.xlsx
+++ b/1  临时/color.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="RGB16" sheetId="9" r:id="rId1"/>
     <sheet name="RGB24" sheetId="10" r:id="rId2"/>
-    <sheet name="gray" sheetId="11" r:id="rId3"/>
+    <sheet name="RGB32" sheetId="13" r:id="rId3"/>
+    <sheet name="gray" sheetId="11" r:id="rId4"/>
+    <sheet name="val" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>color-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,13 +169,19 @@
   <si>
     <t>#004193</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED243B</t>
+  </si>
+  <si>
+    <t>94ADFF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,7 +377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,9 +409,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,6 +444,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,28 +620,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1"/>
-    <col min="3" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1"/>
-    <col min="7" max="7" width="4.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="1"/>
-    <col min="9" max="11" width="8.625" customWidth="1"/>
-    <col min="12" max="12" width="7.75" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="4.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="16" max="18" width="8.625" customWidth="1"/>
+    <col min="16" max="18" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
@@ -652,7 +662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -702,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>8410</v>
       </c>
@@ -742,7 +752,7 @@
         <v>16</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3:L11" si="0">DEC2HEX(I3*2^11+J3*2^5+K3)</f>
+        <f t="shared" ref="L3:L12" si="0">DEC2HEX(I3*2^11+J3*2^5+K3)</f>
         <v>8410</v>
       </c>
       <c r="M3" s="11">
@@ -769,7 +779,7 @@
         <v>1F3F1F</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -797,15 +807,15 @@
         <v>28</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I11" si="11">INT(HEX2DEC(LEFT(RIGHT($H4,6),2))/2^3)</f>
+        <f t="shared" ref="I4:I14" si="11">INT(HEX2DEC(LEFT(RIGHT($H4,6),2))/2^3)</f>
         <v>31</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J11" si="12">INT(HEX2DEC(MID(RIGHT($H4,6),3,2))/2^2)</f>
+        <f t="shared" ref="J4:J14" si="12">INT(HEX2DEC(MID(RIGHT($H4,6),3,2))/2^2)</f>
         <v>63</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K11" si="13">INT(HEX2DEC(RIGHT(RIGHT($H4,6),2))/2^3)</f>
+        <f t="shared" ref="K4:K14" si="13">INT(HEX2DEC(RIGHT(RIGHT($H4,6),2))/2^3)</f>
         <v>31</v>
       </c>
       <c r="L4" s="12" t="str">
@@ -836,7 +846,7 @@
         <v>1D3B1D</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -903,7 +913,7 @@
         <v>FFFFFF</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>700</v>
       </c>
@@ -970,7 +980,7 @@
         <v>A61E9</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +1047,7 @@
         <v>1B3A1F</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>40</v>
       </c>
@@ -1104,7 +1114,7 @@
         <v>1D3B1D</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -1171,7 +1181,7 @@
         <v>D8E8F8</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>40</v>
       </c>
@@ -1220,7 +1230,8 @@
       </c>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="12"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
@@ -1245,88 +1256,130 @@
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>E927</v>
+      </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="shared" ref="L13" si="16">DEC2HEX(I13*2^11+J13*2^5+K13)</f>
+        <v>957F</v>
+      </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>222222</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f>DEC2HEX(I14*2^11+J14*2^5+K14)</f>
+        <v>841</v>
+      </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="18" spans="9:20">
+    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="9:20">
+    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="9:20">
+    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="9:20">
+    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="9:20">
+    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="9:20">
+    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="9:20">
+    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="9:20">
+    <row r="25" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="9:20">
+    <row r="26" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="9:20">
+    <row r="27" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1342,22 +1395,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1"/>
-    <col min="3" max="5" width="12.75" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.875" style="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="5" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1395,7 +1448,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>8410</v>
       </c>
@@ -1458,7 +1511,7 @@
         <v>33808</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1521,7 +1574,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1584,7 +1637,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>700</v>
       </c>
@@ -1647,7 +1700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +1763,7 @@
         <v>61213</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40</v>
       </c>
@@ -1760,7 +1813,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1810,7 +1863,7 @@
         <v>23243</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1870,7 +1923,7 @@
         <v>19641</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1931,7 +1984,7 @@
         <v>34240</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H11" s="2">
         <v>29</v>
       </c>
@@ -1969,7 +2022,7 @@
         <v>51342</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H12" s="2">
         <v>255</v>
       </c>
@@ -2007,7 +2060,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H13" s="2">
         <v>10</v>
       </c>
@@ -2028,7 +2081,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H14" s="1">
         <v>27</v>
       </c>
@@ -2044,7 +2097,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H15" s="1">
         <v>29</v>
       </c>
@@ -2060,44 +2113,78 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>237</v>
+      </c>
+      <c r="I16" s="1">
+        <v>36</v>
+      </c>
+      <c r="J16" s="1">
+        <v>59</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="9:12">
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>148</v>
+      </c>
+      <c r="I17" s="1">
+        <v>173</v>
+      </c>
+      <c r="J17" s="1">
+        <v>255</v>
+      </c>
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="9:12">
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="9:12">
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="9:12">
+    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
       <c r="I20" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2111,7 +2198,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>808080</v>
       </c>
@@ -2133,7 +2220,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -2155,7 +2242,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2179,7 +2266,7 @@
         <v>0x0000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2204,7 +2291,7 @@
         <v>0x0861</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2229,7 +2316,7 @@
         <v>0x18E3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2254,7 +2341,7 @@
         <v>0x2965</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2279,7 +2366,7 @@
         <v>0x39E7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2304,7 +2391,7 @@
         <v>0x4A69</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2329,7 +2416,7 @@
         <v>0x5AEB</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2354,7 +2441,7 @@
         <v>0x6B6D</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2379,7 +2466,7 @@
         <v>0x7BEF</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2404,7 +2491,7 @@
         <v>0x8C71</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2429,7 +2516,7 @@
         <v>0x9CF3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2454,7 +2541,7 @@
         <v>0xAD75</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2479,7 +2566,7 @@
         <v>0xBDF7</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2504,7 +2591,7 @@
         <v>0xCE79</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2529,7 +2616,7 @@
         <v>0xDEFB</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2554,7 +2641,7 @@
         <v>0xEF7D</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2579,7 +2666,7 @@
         <v>0xFFFF</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>4</v>
       </c>
@@ -2594,7 +2681,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1</v>
       </c>
@@ -2609,7 +2696,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2</v>
       </c>
@@ -2629,4 +2716,151 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <f>15*16</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f>DEC2HEX(C6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <f>+C6*2+1</f>
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ref="D7:D16" si="0">DEC2HEX(C7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>111</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C11" si="1">+C7*2+1</f>
+        <v>7</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1111</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>11111</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>1F</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>111111</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>3F</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11000</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11100</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>